--- a/£RR.xlsx
+++ b/£RR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3282144A-0255-4E40-A681-426C3EAD5539}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB834BC-A0D8-4E76-88A4-59F45C3D6ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{B7FCADD1-58EC-4B82-9CCD-9AF87B9346F4}"/>
   </bookViews>
@@ -2198,7 +2198,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T19" sqref="T19:Y30"/>
+      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2576,7 +2576,10 @@
       <c r="O11" s="43">
         <v>4345</v>
       </c>
-      <c r="P11" s="44"/>
+      <c r="P11" s="44">
+        <f>AB11-O11</f>
+        <v>4737</v>
+      </c>
       <c r="Q11" s="43">
         <v>4538</v>
       </c>
@@ -2602,7 +2605,10 @@
         <f>O10-O11</f>
         <v>814</v>
       </c>
-      <c r="P12" s="42"/>
+      <c r="P12" s="42">
+        <f>P10-P11</f>
+        <v>863</v>
+      </c>
       <c r="Q12" s="41">
         <f>Q10-Q11</f>
         <v>1062</v>
@@ -2650,7 +2656,10 @@
       <c r="O13" s="43">
         <v>424</v>
       </c>
-      <c r="P13" s="44"/>
+      <c r="P13" s="44">
+        <f t="shared" ref="P13:P15" si="2">AB13-O13</f>
+        <v>466</v>
+      </c>
       <c r="Q13" s="43">
         <v>514</v>
       </c>
@@ -2675,7 +2684,10 @@
       <c r="O14" s="43">
         <v>390</v>
       </c>
-      <c r="P14" s="44"/>
+      <c r="P14" s="44">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
       <c r="Q14" s="43">
         <v>373</v>
       </c>
@@ -2700,7 +2712,10 @@
       <c r="O15" s="43">
         <v>38</v>
       </c>
-      <c r="P15" s="44"/>
+      <c r="P15" s="44">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="Q15" s="43">
         <v>48</v>
       </c>
@@ -2726,38 +2741,41 @@
         <f>O12-O13-O14+O15</f>
         <v>38</v>
       </c>
-      <c r="P16" s="42"/>
+      <c r="P16" s="42">
+        <f>P12-P13-P14+P15</f>
+        <v>16</v>
+      </c>
       <c r="Q16" s="41">
         <f>Q12-Q13-Q14+Q15</f>
         <v>223</v>
       </c>
       <c r="R16" s="42"/>
       <c r="V16" s="41">
-        <f t="shared" ref="V16:AB16" si="2">V12-V13-V14+V15</f>
+        <f t="shared" ref="V16:AB16" si="3">V12-V13-V14+V15</f>
         <v>0</v>
       </c>
       <c r="W16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1972</v>
       </c>
       <c r="AB16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>513</v>
       </c>
     </row>
@@ -2774,7 +2792,10 @@
       <c r="O17" s="43">
         <v>-7</v>
       </c>
-      <c r="P17" s="44"/>
+      <c r="P17" s="44">
+        <f t="shared" ref="P17:P19" si="4">AB17-O17</f>
+        <v>63</v>
+      </c>
       <c r="Q17" s="43">
         <v>77</v>
       </c>
@@ -2799,7 +2820,10 @@
       <c r="O18" s="43">
         <v>280</v>
       </c>
-      <c r="P18" s="44"/>
+      <c r="P18" s="44">
+        <f t="shared" si="4"/>
+        <v>-51</v>
+      </c>
       <c r="Q18" s="43">
         <v>215</v>
       </c>
@@ -2824,7 +2848,10 @@
       <c r="O19" s="43">
         <v>197</v>
       </c>
-      <c r="P19" s="44"/>
+      <c r="P19" s="44">
+        <f t="shared" si="4"/>
+        <v>895</v>
+      </c>
       <c r="Q19" s="43">
         <v>2269</v>
       </c>
@@ -2850,7 +2877,10 @@
         <f>O18-O19</f>
         <v>83</v>
       </c>
-      <c r="P20" s="44"/>
+      <c r="P20" s="44">
+        <f>P18-P19</f>
+        <v>-946</v>
+      </c>
       <c r="Q20" s="43">
         <f>Q18-Q19</f>
         <v>-2054</v>
@@ -2873,15 +2903,15 @@
         <v>0</v>
       </c>
       <c r="Z20" s="43">
-        <f t="shared" ref="Z20:AB20" si="3">Z18-Z19</f>
+        <f t="shared" ref="Z20:AB20" si="5">Z18-Z19</f>
         <v>0</v>
       </c>
       <c r="AA20" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-813</v>
       </c>
       <c r="AB20" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-863</v>
       </c>
     </row>
@@ -2899,7 +2929,10 @@
         <f>O16+O17+O20</f>
         <v>114</v>
       </c>
-      <c r="P21" s="44"/>
+      <c r="P21" s="44">
+        <f>P16+P17+P20</f>
+        <v>-867</v>
+      </c>
       <c r="Q21" s="43">
         <f>Q16+Q17+Q20</f>
         <v>-1754</v>
@@ -2922,15 +2955,15 @@
         <v>0</v>
       </c>
       <c r="Z21" s="43">
-        <f t="shared" ref="Z21:AB21" si="4">Z16+Z17+Z20</f>
+        <f t="shared" ref="Z21:AB21" si="6">Z16+Z17+Z20</f>
         <v>0</v>
       </c>
       <c r="AA21" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2799</v>
       </c>
       <c r="AB21" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-294</v>
       </c>
     </row>
@@ -2947,7 +2980,10 @@
       <c r="O22" s="43">
         <v>280</v>
       </c>
-      <c r="P22" s="44"/>
+      <c r="P22" s="44">
+        <f>AB22-O22</f>
+        <v>138</v>
+      </c>
       <c r="Q22" s="43">
         <v>143</v>
       </c>
@@ -2973,7 +3009,10 @@
         <f>O21+O22</f>
         <v>394</v>
       </c>
-      <c r="P23" s="44"/>
+      <c r="P23" s="44">
+        <f>P21+P22</f>
+        <v>-729</v>
+      </c>
       <c r="Q23" s="43">
         <f>Q21+Q22</f>
         <v>-1611</v>
@@ -2996,15 +3035,15 @@
         <v>0</v>
       </c>
       <c r="Z23" s="43">
-        <f t="shared" ref="Z23:AB23" si="5">Z21+Z22</f>
+        <f t="shared" ref="Z23:AB23" si="7">Z21+Z22</f>
         <v>0</v>
       </c>
       <c r="AA23" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3101</v>
       </c>
       <c r="AB23" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
     </row>
@@ -3021,7 +3060,10 @@
       <c r="O24" s="43">
         <v>16</v>
       </c>
-      <c r="P24" s="44"/>
+      <c r="P24" s="44">
+        <f>AB24-O24</f>
+        <v>20</v>
+      </c>
       <c r="Q24" s="43">
         <v>60</v>
       </c>
@@ -3046,7 +3088,10 @@
       <c r="O25" s="43">
         <v>17</v>
       </c>
-      <c r="P25" s="44"/>
+      <c r="P25" s="44">
+        <f>AB25-O25</f>
+        <v>22</v>
+      </c>
       <c r="Q25" s="43">
         <v>4</v>
       </c>
@@ -3078,7 +3123,10 @@
         <f>O23+O24-O25</f>
         <v>393</v>
       </c>
-      <c r="P26" s="42"/>
+      <c r="P26" s="42">
+        <f>P23+P24-P25</f>
+        <v>-731</v>
+      </c>
       <c r="Q26" s="41">
         <f>Q23+Q24-Q25</f>
         <v>-1555</v>
@@ -3101,15 +3149,15 @@
         <v>0</v>
       </c>
       <c r="Z26" s="41">
-        <f t="shared" ref="Z26:AB26" si="6">Z23+Z24-Z25</f>
+        <f t="shared" ref="Z26:AB26" si="8">Z23+Z24-Z25</f>
         <v>0</v>
       </c>
       <c r="AA26" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3169</v>
       </c>
       <c r="AB26" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
     </row>
@@ -3127,7 +3175,10 @@
         <f>O26/O28</f>
         <v>4.7173208498379547E-2</v>
       </c>
-      <c r="P27" s="57"/>
+      <c r="P27" s="57">
+        <f>P26/P28</f>
+        <v>-8.7734037445991356E-2</v>
+      </c>
       <c r="Q27" s="56">
         <f>Q26/Q28</f>
         <v>-0.18633912522468543</v>
@@ -3155,7 +3206,10 @@
       <c r="O28" s="43">
         <v>8331</v>
       </c>
-      <c r="P28" s="44"/>
+      <c r="P28" s="44">
+        <f>AB28</f>
+        <v>8332</v>
+      </c>
       <c r="Q28" s="43">
         <v>8345</v>
       </c>
@@ -3221,12 +3275,12 @@
       <c r="N32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="55">
-        <f t="shared" ref="Q32:Q34" si="7">Q5/O5-1</f>
+        <f t="shared" ref="Q32:Q34" si="9">Q5/O5-1</f>
         <v>-6.5078442765833855E-2</v>
       </c>
       <c r="R32" s="49"/>
       <c r="AB32" s="55">
-        <f t="shared" ref="AB32:AB34" si="8">AB5/AA5-1</f>
+        <f t="shared" ref="AB32:AB34" si="10">AB5/AA5-1</f>
         <v>3.8748137108792768E-3</v>
       </c>
     </row>
@@ -3242,12 +3296,12 @@
       <c r="N33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16088060965283657</v>
       </c>
       <c r="R33" s="49"/>
       <c r="AB33" s="55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.1188299817184202E-3</v>
       </c>
     </row>
@@ -3263,12 +3317,12 @@
       <c r="N34" s="49"/>
       <c r="P34" s="49"/>
       <c r="Q34" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.5</v>
       </c>
       <c r="R34" s="49"/>
       <c r="AB34" s="55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.6</v>
       </c>
     </row>
@@ -3621,59 +3675,59 @@
         <v>130</v>
       </c>
       <c r="C56" s="43">
-        <f t="shared" ref="C56:P56" si="9">SUM(C48:C55)</f>
+        <f t="shared" ref="C56:P56" si="11">SUM(C48:C55)</f>
         <v>0</v>
       </c>
       <c r="D56" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E56" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F56" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G56" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H56" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I56" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J56" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K56" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L56" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M56" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N56" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O56" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13359</v>
       </c>
       <c r="P56" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q56" s="43">
@@ -3839,59 +3893,59 @@
         <v>136</v>
       </c>
       <c r="C65" s="43">
-        <f t="shared" ref="C65:P65" si="10">SUM(C57:C64)+C56</f>
+        <f t="shared" ref="C65:P65" si="12">SUM(C57:C64)+C56</f>
         <v>0</v>
       </c>
       <c r="D65" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E65" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F65" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G65" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H65" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I65" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J65" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K65" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L65" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M65" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N65" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O65" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28674</v>
       </c>
       <c r="P65" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q65" s="43">
@@ -4029,59 +4083,59 @@
         <v>144</v>
       </c>
       <c r="C73" s="43">
-        <f t="shared" ref="C73:P73" si="11">SUM(C67:C72)</f>
+        <f t="shared" ref="C73:P73" si="13">SUM(C67:C72)</f>
         <v>0</v>
       </c>
       <c r="D73" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E73" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F73" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G73" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H73" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I73" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J73" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K73" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L73" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M73" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N73" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O73" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11159</v>
       </c>
       <c r="P73" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q73" s="43">
@@ -4247,59 +4301,59 @@
         <v>147</v>
       </c>
       <c r="C82" s="43">
-        <f t="shared" ref="C82:P82" si="12">C73+SUM(C74:C81)</f>
+        <f t="shared" ref="C82:P82" si="14">C73+SUM(C74:C81)</f>
         <v>0</v>
       </c>
       <c r="D82" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E82" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F82" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G82" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H82" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I82" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J82" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K82" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L82" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M82" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N82" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O82" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>33310</v>
       </c>
       <c r="P82" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q82" s="43">
@@ -4363,59 +4417,59 @@
         <v>149</v>
       </c>
       <c r="C87" s="43">
-        <f t="shared" ref="C87:P87" si="13">C65-C82</f>
+        <f t="shared" ref="C87:P87" si="15">C65-C82</f>
         <v>0</v>
       </c>
       <c r="D87" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E87" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F87" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G87" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H87" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I87" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J87" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K87" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L87" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M87" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N87" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O87" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-4636</v>
       </c>
       <c r="P87" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q87" s="43">
@@ -4508,63 +4562,63 @@
         <v>8</v>
       </c>
       <c r="C92" s="43">
-        <f t="shared" ref="C92:Q92" si="14">C90-C91</f>
+        <f t="shared" ref="C92:Q92" si="16">C90-C91</f>
         <v>0</v>
       </c>
       <c r="D92" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E92" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F92" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G92" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H92" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I92" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J92" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K92" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L92" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M92" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N92" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O92" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-8144</v>
       </c>
       <c r="P92" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q92" s="43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-9129</v>
       </c>
       <c r="R92" s="44"/>
@@ -4738,7 +4792,7 @@
         <v>-89</v>
       </c>
       <c r="P112" s="44">
-        <f t="shared" ref="P112:P119" si="15">AB112-O112</f>
+        <f t="shared" ref="P112:P119" si="17">AB112-O112</f>
         <v>-142</v>
       </c>
       <c r="Q112" s="1">
@@ -4759,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="P113" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="Q113" s="1">
@@ -4780,7 +4834,7 @@
         <v>-126</v>
       </c>
       <c r="P114" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-202</v>
       </c>
       <c r="Q114" s="1">
@@ -4801,7 +4855,7 @@
         <v>5</v>
       </c>
       <c r="P115" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="Q115" s="1">
@@ -4822,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q116" s="1">
@@ -4843,7 +4897,7 @@
         <v>-8</v>
       </c>
       <c r="P117" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>107</v>
       </c>
       <c r="Q117" s="1">
@@ -4864,7 +4918,7 @@
         <v>-2</v>
       </c>
       <c r="P118" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="Q118" s="1">
@@ -4885,7 +4939,7 @@
         <v>-1</v>
       </c>
       <c r="P119" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-7</v>
       </c>
       <c r="Q119" s="1">
@@ -4909,20 +4963,20 @@
       <c r="L120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="41">
-        <f t="shared" ref="O120" si="16">SUM(O111:O119)</f>
+        <f t="shared" ref="O120" si="18">SUM(O111:O119)</f>
         <v>-225</v>
       </c>
       <c r="P120" s="42">
-        <f t="shared" ref="P120" si="17">SUM(P111:P119)</f>
+        <f t="shared" ref="P120" si="19">SUM(P111:P119)</f>
         <v>-203</v>
       </c>
       <c r="Q120" s="41">
-        <f t="shared" ref="Q120" si="18">SUM(Q111:Q119)</f>
+        <f t="shared" ref="Q120" si="20">SUM(Q111:Q119)</f>
         <v>-22</v>
       </c>
       <c r="R120" s="39"/>
       <c r="AA120" s="41">
-        <f t="shared" ref="AA120" si="19">SUM(AA111:AA119)</f>
+        <f t="shared" ref="AA120" si="21">SUM(AA111:AA119)</f>
         <v>-1010</v>
       </c>
       <c r="AB120" s="41">
@@ -4942,19 +4996,19 @@
         <v>154</v>
       </c>
       <c r="O122" s="43">
-        <f t="shared" ref="O122:P122" si="20">O112+O114</f>
+        <f t="shared" ref="O122:P122" si="22">O112+O114</f>
         <v>-215</v>
       </c>
       <c r="P122" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-344</v>
       </c>
       <c r="Q122" s="43">
-        <f t="shared" ref="Q122" si="21">Q112+Q114</f>
+        <f t="shared" ref="Q122" si="23">Q112+Q114</f>
         <v>-219</v>
       </c>
       <c r="AA122" s="43">
-        <f t="shared" ref="AA122" si="22">AA112+AA114</f>
+        <f t="shared" ref="AA122" si="24">AA112+AA114</f>
         <v>-950</v>
       </c>
       <c r="AB122" s="43">
@@ -4977,7 +5031,7 @@
         <v>-894</v>
       </c>
       <c r="P124" s="42">
-        <f t="shared" ref="P124" si="23">P109+P122</f>
+        <f t="shared" ref="P124" si="25">P109+P122</f>
         <v>76</v>
       </c>
       <c r="Q124" s="41">
@@ -5003,7 +5057,7 @@
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
   <ignoredErrors>
     <ignoredError sqref="Q90:Q91 O90:O91" formulaRange="1"/>
-    <ignoredError sqref="O92" formula="1"/>
+    <ignoredError sqref="O92 P12:P26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>
